--- a/testing.xlsx
+++ b/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septi\Downloads\lufti\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2DE1CF-353E-42A3-B5DE-CEDD5FC799BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DE032-D79C-4A33-9CDC-2464100E98AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="3165" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B47108DF-2FA2-4F70-ABFB-134134DF028F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B47108DF-2FA2-4F70-ABFB-134134DF028F}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -333,13 +333,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,13 +387,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,31 +414,22 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6FD345-7D12-4702-B1B7-9749C0B4E8E4}">
   <dimension ref="E6:S97"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,23 +772,23 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E7" s="9" t="s">
@@ -1335,23 +1335,23 @@
       </c>
     </row>
     <row r="22" spans="5:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="35"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="26"/>
     </row>
     <row r="23" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E23" s="9" t="s">
@@ -1898,23 +1898,23 @@
       </c>
     </row>
     <row r="38" spans="5:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="32"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
     </row>
     <row r="39" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E39" s="9" t="s">
@@ -2461,23 +2461,23 @@
       </c>
     </row>
     <row r="54" spans="5:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="29"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="32"/>
     </row>
     <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E55" s="9" t="s">
@@ -3024,23 +3024,23 @@
       </c>
     </row>
     <row r="69" spans="5:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="26"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="35"/>
     </row>
     <row r="70" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E70" s="9" t="s">
@@ -3587,23 +3587,23 @@
       </c>
     </row>
     <row r="85" spans="5:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="8"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="38"/>
     </row>
     <row r="86" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E86" s="9" t="s">
@@ -4151,42 +4151,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E85:S85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="E69:S69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="E54:S54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="E38:S38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="E22:S22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
     <mergeCell ref="E6:S6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="E22:S22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="E38:S38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="E54:S54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="E69:S69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="E85:S85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4196,8 +4196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0735F45-CE50-4A6D-A5C5-0CD11EFFBA17}">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:A300"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5711,8 +5711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8B7E6A-5781-47F3-96CC-C6FE4DEAC179}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
